--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarwinAlejandro\Documents\NetBeansProjects\portal-uce\public_html\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtic\Documents\GitHub\NetBeansProjects\portal-uce\public_html\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>dsono</t>
   </si>
@@ -372,13 +372,55 @@
     <t>UCE</t>
   </si>
   <si>
-    <t>Comunicación y cultura</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>/w/direcs/comunicación-y-cultura</t>
+    <t>Artes</t>
+  </si>
+  <si>
+    <t>Arquitectura y Urbanismo</t>
+  </si>
+  <si>
+    <t>Ciencias Administrativas</t>
+  </si>
+  <si>
+    <t>Ciencias Agrícolas</t>
+  </si>
+  <si>
+    <t>Ciencias Económicas</t>
+  </si>
+  <si>
+    <t>Ciencias Médicas</t>
+  </si>
+  <si>
+    <t>Ciencias Psicológicas</t>
+  </si>
+  <si>
+    <t>Ciencias Químicas</t>
+  </si>
+  <si>
+    <t>Comunicación Social</t>
+  </si>
+  <si>
+    <t>Cultura Física</t>
+  </si>
+  <si>
+    <t>Ingeniería Ciencias Físicas y Matemática</t>
+  </si>
+  <si>
+    <t>Filosofía, Letras y Ciencias de la Educación</t>
+  </si>
+  <si>
+    <t>Ingeniería en Geología, Minas, Petróleo y Ambiental</t>
+  </si>
+  <si>
+    <t>Ingeniería Química</t>
+  </si>
+  <si>
+    <t>Jurisprudencia, Ciencias Políticas y Sociales</t>
+  </si>
+  <si>
+    <t>Medicina Veterinaria y Zootecnia</t>
+  </si>
+  <si>
+    <t>Odontología</t>
   </si>
 </sst>
 </file>
@@ -699,7 +741,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,15 +1225,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -1232,21 +1274,168 @@
       <c r="B3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtic\Documents\GitHub\NetBeansProjects\portal-uce\public_html\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarwinAlejandro\Documents\NetBeansProjects\portal-uce\public_html\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Sitios" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="205">
   <si>
     <t>dsono</t>
   </si>
@@ -102,9 +103,6 @@
     <t>rpauca</t>
   </si>
   <si>
-    <t>rpaucar@uce.ecu.ec</t>
-  </si>
-  <si>
     <t>Ricardo</t>
   </si>
   <si>
@@ -156,9 +154,6 @@
     <t>Portilla</t>
   </si>
   <si>
-    <t>default@liferay.com</t>
-  </si>
-  <si>
     <t>dacopan</t>
   </si>
   <si>
@@ -333,39 +328,15 @@
     <t>Apellido</t>
   </si>
   <si>
-    <t>Dependencia</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Super Admin</t>
-  </si>
-  <si>
-    <t>ALL,Comunicacion</t>
-  </si>
-  <si>
     <t>Nombre dependencia</t>
   </si>
   <si>
-    <t>url dependencia</t>
-  </si>
-  <si>
-    <t>folder dependencia</t>
-  </si>
-  <si>
     <t>tiene sitio</t>
   </si>
   <si>
     <t>typo</t>
   </si>
   <si>
-    <t>uce_admin</t>
-  </si>
-  <si>
     <t>uce_site_admin</t>
   </si>
   <si>
@@ -421,16 +392,273 @@
   </si>
   <si>
     <t>Odontología</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación y Cultura</t>
+  </si>
+  <si>
+    <t>Dirección General Académica</t>
+  </si>
+  <si>
+    <t>Dirección General Administrativa</t>
+  </si>
+  <si>
+    <t>Dirección General de Bienestar Universitario</t>
+  </si>
+  <si>
+    <t>Dirección General Financiera</t>
+  </si>
+  <si>
+    <t>Dirección General de Investigación y Postgrado</t>
+  </si>
+  <si>
+    <t>Dirección de Infraestructura Física y Fiscalización</t>
+  </si>
+  <si>
+    <t>Dirección de Talento Humano</t>
+  </si>
+  <si>
+    <t>Dirección de Tecnologías de la Información y Comunicación</t>
+  </si>
+  <si>
+    <t>Comisión de Vinculación con la Sociedad</t>
+  </si>
+  <si>
+    <t>Dirección de Seguridad y Salud</t>
+  </si>
+  <si>
+    <t>Dirección de Contratación Pública</t>
+  </si>
+  <si>
+    <t>Comisión de Arte, Cultura y Deporte</t>
+  </si>
+  <si>
+    <t>Comisión de Economía</t>
+  </si>
+  <si>
+    <t>Comisión Jurídica</t>
+  </si>
+  <si>
+    <t>Comisión Administrativa y de Control</t>
+  </si>
+  <si>
+    <t>Comisión Académica de Investigación y Postgrado</t>
+  </si>
+  <si>
+    <t>Comisión de Evaluación Interna y Acreditación</t>
+  </si>
+  <si>
+    <t>Secretaría General</t>
+  </si>
+  <si>
+    <t>Comité de Ética</t>
+  </si>
+  <si>
+    <t>Andinismo</t>
+  </si>
+  <si>
+    <t>Arte</t>
+  </si>
+  <si>
+    <t>Fútbol</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t>Taekwondo</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>fac</t>
+  </si>
+  <si>
+    <t>direc</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>artes</t>
+  </si>
+  <si>
+    <t>fca</t>
+  </si>
+  <si>
+    <t>econ</t>
+  </si>
+  <si>
+    <t>medic</t>
+  </si>
+  <si>
+    <t>psico</t>
+  </si>
+  <si>
+    <t>quim</t>
+  </si>
+  <si>
+    <t>fing</t>
+  </si>
+  <si>
+    <t>igmpa</t>
+  </si>
+  <si>
+    <t>ing-quim</t>
+  </si>
+  <si>
+    <t>arq-y-urb</t>
+  </si>
+  <si>
+    <t>agric</t>
+  </si>
+  <si>
+    <t>com-soc</t>
+  </si>
+  <si>
+    <t>cul-fis</t>
+  </si>
+  <si>
+    <t>juris-pol</t>
+  </si>
+  <si>
+    <t>veter-zoo</t>
+  </si>
+  <si>
+    <t>odonto</t>
+  </si>
+  <si>
+    <t>dcom-cult</t>
+  </si>
+  <si>
+    <t>dgen-aca</t>
+  </si>
+  <si>
+    <t>dgen-adm</t>
+  </si>
+  <si>
+    <t>dgen-fin</t>
+  </si>
+  <si>
+    <t>dcom-publ</t>
+  </si>
+  <si>
+    <t>com-art-depo</t>
+  </si>
+  <si>
+    <t>dg-inv</t>
+  </si>
+  <si>
+    <t>dtic</t>
+  </si>
+  <si>
+    <t>dvin-soc</t>
+  </si>
+  <si>
+    <t>dgen-buniv</t>
+  </si>
+  <si>
+    <t>dinfra-f-y-f</t>
+  </si>
+  <si>
+    <t>dseg-salu</t>
+  </si>
+  <si>
+    <t>dcon-publ</t>
+  </si>
+  <si>
+    <t>com-econ</t>
+  </si>
+  <si>
+    <t>com-jur</t>
+  </si>
+  <si>
+    <t>com-adm-ctrl</t>
+  </si>
+  <si>
+    <t>ca-inv-pos</t>
+  </si>
+  <si>
+    <t>ce-int-acr</t>
+  </si>
+  <si>
+    <t>sec-gen</t>
+  </si>
+  <si>
+    <t>com-etica</t>
+  </si>
+  <si>
+    <t>andinismo</t>
+  </si>
+  <si>
+    <t>arte</t>
+  </si>
+  <si>
+    <t>rugby</t>
+  </si>
+  <si>
+    <t>taekwondo</t>
+  </si>
+  <si>
+    <t>futbol</t>
+  </si>
+  <si>
+    <t>carpeta</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>uce_admin 1</t>
+  </si>
+  <si>
+    <t>uce_admin 2</t>
+  </si>
+  <si>
+    <t>uce_admin 3</t>
+  </si>
+  <si>
+    <t>uce</t>
+  </si>
+  <si>
+    <t>filo-lce</t>
+  </si>
+  <si>
+    <t>rpaucar@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>uce noticias</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>uce_noticias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -453,13 +681,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,292 +981,276 @@
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>10158</v>
+      <c r="B17" t="s">
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,16 +1258,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1060,13 +1272,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,16 +1289,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,16 +1306,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,16 +1323,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,16 +1340,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1142,19 +1360,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,19 +1380,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,39 +1400,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1225,217 +1423,986 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="str">
+        <f>Hoja1!C15</f>
+        <v>dslopez@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" t="str">
+        <f>Hoja1!C11</f>
+        <v>avillafuerte@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="str">
+        <f>Hoja1!C6</f>
+        <v>cendara@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" t="str">
+        <f>Hoja1!C7</f>
+        <v>rpalma@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="str">
+        <f>Hoja1!C14</f>
+        <v>wpena@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" t="str">
+        <f>Hoja1!C5</f>
+        <v>dsono@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="str">
+        <f>Hoja1!C12</f>
+        <v>jmsalvador@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="str">
+        <f>Hoja1!C8</f>
+        <v>wpazmino@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="str">
+        <f>Hoja1!C10</f>
+        <v>tsanchez@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="str">
+        <f>Hoja1!C9</f>
+        <v>kjloachamin@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>203</v>
+      </c>
+      <c r="E48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarwinAlejandro\Documents\NetBeansProjects\portal-uce\public_html\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtic\Documents\GitHub\NetBeansProjects\portal-uce\public_html\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Sitios" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
   <si>
     <t>dsono</t>
   </si>
@@ -487,114 +487,12 @@
     <t>club</t>
   </si>
   <si>
-    <t>artes</t>
-  </si>
-  <si>
-    <t>fca</t>
-  </si>
-  <si>
-    <t>econ</t>
-  </si>
-  <si>
-    <t>medic</t>
-  </si>
-  <si>
-    <t>psico</t>
-  </si>
-  <si>
-    <t>quim</t>
-  </si>
-  <si>
     <t>fing</t>
   </si>
   <si>
-    <t>igmpa</t>
-  </si>
-  <si>
-    <t>ing-quim</t>
-  </si>
-  <si>
-    <t>arq-y-urb</t>
-  </si>
-  <si>
-    <t>agric</t>
-  </si>
-  <si>
-    <t>com-soc</t>
-  </si>
-  <si>
-    <t>cul-fis</t>
-  </si>
-  <si>
-    <t>juris-pol</t>
-  </si>
-  <si>
-    <t>veter-zoo</t>
-  </si>
-  <si>
-    <t>odonto</t>
-  </si>
-  <si>
-    <t>dcom-cult</t>
-  </si>
-  <si>
-    <t>dgen-aca</t>
-  </si>
-  <si>
-    <t>dgen-adm</t>
-  </si>
-  <si>
-    <t>dgen-fin</t>
-  </si>
-  <si>
-    <t>dcom-publ</t>
-  </si>
-  <si>
-    <t>com-art-depo</t>
-  </si>
-  <si>
-    <t>dg-inv</t>
-  </si>
-  <si>
     <t>dtic</t>
   </si>
   <si>
-    <t>dvin-soc</t>
-  </si>
-  <si>
-    <t>dgen-buniv</t>
-  </si>
-  <si>
-    <t>dinfra-f-y-f</t>
-  </si>
-  <si>
-    <t>dseg-salu</t>
-  </si>
-  <si>
-    <t>dcon-publ</t>
-  </si>
-  <si>
-    <t>com-econ</t>
-  </si>
-  <si>
-    <t>com-jur</t>
-  </si>
-  <si>
-    <t>com-adm-ctrl</t>
-  </si>
-  <si>
-    <t>ca-inv-pos</t>
-  </si>
-  <si>
-    <t>ce-int-acr</t>
-  </si>
-  <si>
-    <t>sec-gen</t>
-  </si>
-  <si>
-    <t>com-etica</t>
-  </si>
-  <si>
     <t>andinismo</t>
   </si>
   <si>
@@ -628,9 +526,6 @@
     <t>uce</t>
   </si>
   <si>
-    <t>filo-lce</t>
-  </si>
-  <si>
     <t>rpaucar@uce.edu.ec</t>
   </si>
   <si>
@@ -641,6 +536,114 @@
   </si>
   <si>
     <t>uce_noticias</t>
+  </si>
+  <si>
+    <t>figempa</t>
+  </si>
+  <si>
+    <t>crsalas@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>César ricardo salas piedra</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>fau</t>
+  </si>
+  <si>
+    <t>fcagri</t>
+  </si>
+  <si>
+    <t>fcadm</t>
+  </si>
+  <si>
+    <t>fce</t>
+  </si>
+  <si>
+    <t>fcm</t>
+  </si>
+  <si>
+    <t>fcps</t>
+  </si>
+  <si>
+    <t>fcq</t>
+  </si>
+  <si>
+    <t>fcs</t>
+  </si>
+  <si>
+    <t>fcf</t>
+  </si>
+  <si>
+    <t>fflce</t>
+  </si>
+  <si>
+    <t>fiq</t>
+  </si>
+  <si>
+    <t>fjcps</t>
+  </si>
+  <si>
+    <t>fmvz</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>dcc</t>
+  </si>
+  <si>
+    <t>dgaca</t>
+  </si>
+  <si>
+    <t>dgad</t>
+  </si>
+  <si>
+    <t>dgbu</t>
+  </si>
+  <si>
+    <t>dgf</t>
+  </si>
+  <si>
+    <t>dgip</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>dth</t>
+  </si>
+  <si>
+    <t>cvs</t>
+  </si>
+  <si>
+    <t>dss</t>
+  </si>
+  <si>
+    <t>dcp</t>
+  </si>
+  <si>
+    <t>cacd</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>cj</t>
+  </si>
+  <si>
+    <t>cac</t>
+  </si>
+  <si>
+    <t>caip</t>
+  </si>
+  <si>
+    <t>ceia</t>
+  </si>
+  <si>
+    <t>sg</t>
   </si>
 </sst>
 </file>
@@ -969,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1182,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1415,9 +1418,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1425,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,8 +1449,8 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1454,22 +1468,22 @@
         <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
         <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1487,7 +1501,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1504,10 +1518,10 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G3" t="str">
-        <f>Hoja1!C15</f>
+        <f>Users!C15</f>
         <v>dslopez@uce.edu.ec</v>
       </c>
     </row>
@@ -1525,7 +1539,7 @@
         <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1542,10 +1556,10 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="G5" t="str">
-        <f>Hoja1!C11</f>
+        <f>Users!C11</f>
         <v>avillafuerte@uce.edu.ec</v>
       </c>
     </row>
@@ -1563,10 +1577,10 @@
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G6" t="str">
-        <f>Hoja1!C6</f>
+        <f>Users!C6</f>
         <v>cendara@uce.edu.ec</v>
       </c>
     </row>
@@ -1584,7 +1598,15 @@
         <v>150</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="G7" t="str">
+        <f>Users!C26</f>
+        <v>mhpazmino@uce.edu.ec</v>
+      </c>
+      <c r="H7" t="str">
+        <f>Users!C22</f>
+        <v>pablo_lopez_santana@yahoo.com</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,10 +1623,10 @@
         <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G8" t="str">
-        <f>Hoja1!C7</f>
+        <f>Users!C7</f>
         <v>rpalma@uce.edu.ec</v>
       </c>
     </row>
@@ -1622,7 +1644,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1639,7 +1661,11 @@
         <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>180</v>
+      </c>
+      <c r="G10" t="str">
+        <f>Users!C16</f>
+        <v>cona@uce.edu.ec</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1656,7 +1682,7 @@
         <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1673,10 +1699,10 @@
         <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G12" t="str">
-        <f>Hoja1!C14</f>
+        <f>Users!C14</f>
         <v>wpena@uce.edu.ec</v>
       </c>
     </row>
@@ -1694,7 +1720,7 @@
         <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1711,10 +1737,10 @@
         <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G14" t="str">
-        <f>Hoja1!C5</f>
+        <f>Users!C5</f>
         <v>dsono@uce.edu.ec</v>
       </c>
     </row>
@@ -1732,10 +1758,10 @@
         <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G15" t="str">
-        <f>Hoja1!C12</f>
+        <f>Users!C12</f>
         <v>jmsalvador@uce.edu.ec</v>
       </c>
     </row>
@@ -1753,7 +1779,7 @@
         <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,7 +1796,7 @@
         <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1787,10 +1813,10 @@
         <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G18" t="str">
-        <f>Hoja1!C8</f>
+        <f>Users!C8</f>
         <v>wpazmino@uce.edu.ec</v>
       </c>
     </row>
@@ -1808,10 +1834,10 @@
         <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G19" t="str">
-        <f>Hoja1!C10</f>
+        <f>Users!C10</f>
         <v>tsanchez@uce.edu.ec</v>
       </c>
     </row>
@@ -1829,7 +1855,11 @@
         <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>188</v>
+      </c>
+      <c r="G21" t="str">
+        <f>Users!C4</f>
+        <v>aberrutti@uce.edu.ec</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,7 +1876,7 @@
         <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,7 +1893,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,7 +1910,7 @@
         <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1897,7 +1927,7 @@
         <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1914,7 +1944,11 @@
         <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>193</v>
+      </c>
+      <c r="G26" t="str">
+        <f>Users!C18</f>
+        <v>pcastillo@uce.edu.ec</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,7 +1965,7 @@
         <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,10 +1982,10 @@
         <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G28" t="str">
-        <f>Hoja1!C9</f>
+        <f>Users!C9</f>
         <v>kjloachamin@uce.edu.ec</v>
       </c>
     </row>
@@ -1969,7 +2003,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1986,7 +2020,11 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>196</v>
+      </c>
+      <c r="G30" t="str">
+        <f>Users!C25</f>
+        <v>epalacios@uce.edu.ec</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2003,7 +2041,7 @@
         <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2020,10 +2058,14 @@
         <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="G32" t="str">
+        <f>Users!C23</f>
+        <v>kytapia@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2037,10 +2079,10 @@
         <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2054,10 +2096,10 @@
         <v>151</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2071,10 +2113,10 @@
         <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2088,10 +2130,10 @@
         <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2105,10 +2147,10 @@
         <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2122,10 +2164,14 @@
         <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="G38" t="str">
+        <f>Users!C28</f>
+        <v>crsalas@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2139,10 +2185,10 @@
         <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2156,10 +2202,14 @@
         <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="G40" t="str">
+        <f>Users!C24</f>
+        <v>caortiz@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2173,10 +2223,10 @@
         <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2190,10 +2240,10 @@
         <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2207,10 +2257,10 @@
         <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2224,10 +2274,10 @@
         <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2241,24 +2291,24 @@
         <v>152</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -2279,133 +2329,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B24"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtic\Documents\GitHub\NetBeansProjects\portal-uce\public_html\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarwinAlejandro\Documents\NetBeansProjects\portal-uce\public_html\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Sitios" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sitios (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="206">
   <si>
     <t>dsono</t>
   </si>
@@ -1439,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,6 +2330,702 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F3:F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F45" si="0">CONCATENATE(" ('",E3,"','",B3,"'),")</f>
+        <v xml:space="preserve"> ('fa','Artes'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fau','Arquitectura y Urbanismo'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcadm','Ciencias Administrativas'),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcagri','Ciencias Agrícolas'),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fce','Ciencias Económicas'),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcm','Ciencias Médicas'),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcps','Ciencias Psicológicas'),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcq','Ciencias Químicas'),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcs','Comunicación Social'),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fcf','Cultura Física'),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fing','Ingeniería Ciencias Físicas y Matemática'),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fflce','Filosofía, Letras y Ciencias de la Educación'),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('figempa','Ingeniería en Geología, Minas, Petróleo y Ambiental'),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fiq','Ingeniería Química'),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fjcps','Jurisprudencia, Ciencias Políticas y Sociales'),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fmvz','Medicina Veterinaria y Zootecnia'),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('fo','Odontología'),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dcc','Dirección de Comunicación y Cultura'),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dgaca','Dirección General Académica'),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dgad','Dirección General Administrativa'),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dgbu','Dirección General de Bienestar Universitario'),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dgf','Dirección General Financiera'),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dgip','Dirección General de Investigación y Postgrado'),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('diff','Dirección de Infraestructura Física y Fiscalización'),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dth','Dirección de Talento Humano'),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dtic','Dirección de Tecnologías de la Información y Comunicación'),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('cvs','Comisión de Vinculación con la Sociedad'),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dss','Dirección de Seguridad y Salud'),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('dcp','Dirección de Contratación Pública'),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('cacd','Comisión de Arte, Cultura y Deporte'),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('ce','Comisión de Economía'),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('cj','Comisión Jurídica'),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('cac','Comisión Administrativa y de Control'),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('caip','Comisión Académica de Investigación y Postgrado'),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('ceia','Comisión de Evaluación Interna y Acreditación'),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('sg','Secretaría General'),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('ce','Comité de Ética'),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('andinismo','Andinismo'),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('arte','Arte'),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('futbol','Fútbol'),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> ('rugby','Rugby'),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="str">
+        <f>CONCATENATE(" ('",E46,"','",B46,"'),")</f>
+        <v xml:space="preserve"> ('taekwondo','Taekwondo'),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarwinAlejandro\Documents\NetBeansProjects\portal-uce\public_html\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtic\Documents\GitHub\NetBeansProjects\portal-uce\public_html\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="207">
   <si>
     <t>dsono</t>
   </si>
@@ -645,6 +645,9 @@
   </si>
   <si>
     <t>sg</t>
+  </si>
+  <si>
+    <t>cetica</t>
   </si>
 </sst>
 </file>
@@ -973,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,6 +1430,9 @@
         <v>172</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1"/>
@@ -1440,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,6 +1653,10 @@
       <c r="E9" t="s">
         <v>179</v>
       </c>
+      <c r="G9" t="str">
+        <f>Users!C17</f>
+        <v>aportilla@uce.edu.ec</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2203,7 +2213,7 @@
         <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G40" t="str">
         <f>Users!C24</f>
@@ -2332,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F46" sqref="F3:F46"/>
     </sheetView>
   </sheetViews>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -979,7 +979,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2166,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
         <v>148</v>
@@ -2175,11 +2175,7 @@
         <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" t="str">
-        <f>Users!C28</f>
-        <v>crsalas@uce.edu.ec</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2187,7 +2183,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C39" t="s">
         <v>148</v>
@@ -2196,36 +2192,36 @@
         <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" t="s">
         <v>206</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G39" t="str">
         <f>Users!C24</f>
         <v>caortiz@uce.edu.ec</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s">
         <v>148</v>
@@ -2234,15 +2230,15 @@
         <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
         <v>148</v>
@@ -2251,15 +2247,15 @@
         <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
         <v>148</v>
@@ -2268,15 +2264,15 @@
         <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
         <v>148</v>
@@ -2285,41 +2281,45 @@
         <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
         <v>148</v>
       </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" t="s">
-        <v>158</v>
+      <c r="D47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
         <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>204</v>
+      </c>
+      <c r="G48" t="str">
+        <f>Users!C28</f>
+        <v>crsalas@uce.edu.ec</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="209">
   <si>
     <t>dsono</t>
   </si>
@@ -648,6 +648,12 @@
   </si>
   <si>
     <t>cetica</t>
+  </si>
+  <si>
+    <t>Dirección de Planeamiento Universitario</t>
+  </si>
+  <si>
+    <t>dpu</t>
   </si>
 </sst>
 </file>
@@ -979,7 +985,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,29 +2205,33 @@
         <v>caortiz@uce.edu.ec</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" t="s">
         <v>148</v>
       </c>
-      <c r="D41" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" t="s">
-        <v>155</v>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" t="str">
+        <f>Users!C21</f>
+        <v>swguamba@uce.edu.ec</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>148</v>
@@ -2230,15 +2240,15 @@
         <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s">
         <v>148</v>
@@ -2247,15 +2257,15 @@
         <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
         <v>148</v>
@@ -2264,15 +2274,15 @@
         <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
         <v>148</v>
@@ -2281,54 +2291,71 @@
         <v>152</v>
       </c>
       <c r="E45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>148</v>
       </c>
       <c r="D48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
         <v>151</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>204</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G49" t="str">
         <f>Users!C28</f>
         <v>crsalas@uce.edu.ec</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>47</v>
       </c>
     </row>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="212">
   <si>
     <t>dsono</t>
   </si>
@@ -654,6 +654,15 @@
   </si>
   <si>
     <t>dpu</t>
+  </si>
+  <si>
+    <t>dsaltamirano</t>
+  </si>
+  <si>
+    <t>dsaltamirano@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>Darío Altamirano</t>
   </si>
 </sst>
 </file>
@@ -985,7 +994,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,6 +1437,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>171</v>
@@ -1442,9 +1465,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1"/>
+    <hyperlink ref="C27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1452,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,6 +1821,10 @@
       </c>
       <c r="E16" t="s">
         <v>184</v>
+      </c>
+      <c r="G16" t="str">
+        <f>Users!C27</f>
+        <v>dsaltamirano@uce.edu.ec</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -17,6 +17,9 @@
     <sheet name="Sitios (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="214">
   <si>
     <t>dsono</t>
   </si>
@@ -663,6 +666,12 @@
   </si>
   <si>
     <t>Darío Altamirano</t>
+  </si>
+  <si>
+    <t>dri</t>
+  </si>
+  <si>
+    <t>Dirección de Relaciones Internacionales</t>
   </si>
 </sst>
 </file>
@@ -715,8 +724,36 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1474,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,29 +2291,29 @@
         <v>swguamba@uce.edu.ec</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
         <v>148</v>
       </c>
-      <c r="D42" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" t="s">
-        <v>155</v>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>148</v>
@@ -2285,15 +2322,15 @@
         <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
         <v>148</v>
@@ -2302,15 +2339,15 @@
         <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
         <v>148</v>
@@ -2319,15 +2356,15 @@
         <v>152</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
         <v>148</v>
@@ -2336,54 +2373,71 @@
         <v>152</v>
       </c>
       <c r="E46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>43</v>
-      </c>
-      <c r="B48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
         <v>148</v>
       </c>
       <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" t="s">
         <v>151</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>204</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G50" t="str">
         <f>Users!C28</f>
         <v>crsalas@uce.edu.ec</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>46</v>
-      </c>
-    </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>47</v>
       </c>
     </row>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Sitios" sheetId="2" r:id="rId2"/>
     <sheet name="Sitios (2)" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId4"/>
+    <sheet name="visitias" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="224">
   <si>
     <t>dsono</t>
   </si>
@@ -672,6 +672,36 @@
   </si>
   <si>
     <t>Dirección de Relaciones Internacionales</t>
+  </si>
+  <si>
+    <t>sestrella@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>Guerra Mauricio</t>
+  </si>
+  <si>
+    <t>mcguerra@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>crvinueza</t>
+  </si>
+  <si>
+    <t>crvinueza@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>fesandoval@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>Fabian sandoval</t>
+  </si>
+  <si>
+    <t>acvillalobos@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>didelatorre@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>de la torre</t>
   </si>
 </sst>
 </file>
@@ -716,9 +746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1028,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,6 +1520,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>171</v>
       </c>
@@ -1497,15 +1531,80 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1"/>
     <hyperlink ref="C27" r:id="rId2"/>
+    <hyperlink ref="C29" r:id="rId3"/>
+    <hyperlink ref="C33" r:id="rId4"/>
+    <hyperlink ref="C31" r:id="rId5"/>
+    <hyperlink ref="C32" r:id="rId6"/>
+    <hyperlink ref="C34" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1513,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,6 +1714,13 @@
       <c r="E4" t="s">
         <v>174</v>
       </c>
+      <c r="G4" t="str">
+        <f>Users!C13</f>
+        <v>rpaucar@uce.edu.ec</v>
+      </c>
+      <c r="H4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1762,6 +1868,10 @@
       <c r="E11" t="s">
         <v>181</v>
       </c>
+      <c r="G11" t="str">
+        <f>Users!C33</f>
+        <v>crvinueza@uce.edu.ec</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1800,6 +1910,10 @@
       <c r="E13" t="s">
         <v>153</v>
       </c>
+      <c r="G13" t="str">
+        <f>Users!C32</f>
+        <v>acvillalobos@uce.edu.ec</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1864,7 +1978,7 @@
         <v>dsaltamirano@uce.edu.ec</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1880,8 +1994,11 @@
       <c r="E17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1901,8 +2018,12 @@
         <f>Users!C8</f>
         <v>wpazmino@uce.edu.ec</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f>Users!C34</f>
+        <v>didelatorre@uce.edu.ec</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1923,7 +2044,7 @@
         <v>tsanchez@uce.edu.ec</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1944,7 +2065,7 @@
         <v>aberrutti@uce.edu.ec</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1961,7 +2082,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1978,7 +2099,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1995,7 +2116,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2012,7 +2133,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2033,7 +2154,7 @@
         <v>pcastillo@uce.edu.ec</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2050,7 +2171,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2071,7 +2192,7 @@
         <v>kjloachamin@uce.edu.ec</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2088,7 +2209,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2109,7 +2230,7 @@
         <v>epalacios@uce.edu.ec</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2126,7 +2247,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2442,8 +2563,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3145,17 +3269,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>42158</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="223">
   <si>
     <t>dsono</t>
   </si>
@@ -230,18 +230,6 @@
     <t>guamba</t>
   </si>
   <si>
-    <t>pablolopezsantana</t>
-  </si>
-  <si>
-    <t>pablo_lopez_santana@yahoo.com</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
     <t>kytapia</t>
   </si>
   <si>
@@ -702,6 +690,15 @@
   </si>
   <si>
     <t>de la torre</t>
+  </si>
+  <si>
+    <t>gxpazmino</t>
+  </si>
+  <si>
+    <t>gxpazmino@uce.edu.ec</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1059,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,22 +1074,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,16 +1134,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1413,16 +1410,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
+        <v>222</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,19 +1427,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
         <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,19 +1447,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
         <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,19 +1467,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1490,19 +1487,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
         <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1510,13 +1507,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1524,10 +1521,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1532,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,10 +1540,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,10 +1551,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,7 +1562,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1573,10 +1570,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1584,13 +1581,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1602,9 +1599,10 @@
     <hyperlink ref="C31" r:id="rId5"/>
     <hyperlink ref="C32" r:id="rId6"/>
     <hyperlink ref="C34" r:id="rId7"/>
+    <hyperlink ref="C22" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1613,7 +1611,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,34 +1627,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
         <v>160</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1664,17 +1662,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1682,16 +1680,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G3" t="str">
         <f>Users!C15</f>
@@ -1703,23 +1701,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G4" t="str">
         <f>Users!C13</f>
         <v>rpaucar@uce.edu.ec</v>
       </c>
       <c r="H4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1727,16 +1725,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" t="str">
         <f>Users!C11</f>
@@ -1748,16 +1746,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G6" t="str">
         <f>Users!C6</f>
@@ -1769,16 +1767,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G7" t="str">
         <f>Users!C26</f>
@@ -1786,7 +1784,7 @@
       </c>
       <c r="H7" t="str">
         <f>Users!C22</f>
-        <v>pablo_lopez_santana@yahoo.com</v>
+        <v>gxpazmino@uce.edu.ec</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1794,16 +1792,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G8" t="str">
         <f>Users!C7</f>
@@ -1815,16 +1813,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G9" t="str">
         <f>Users!C17</f>
@@ -1836,16 +1834,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G10" t="str">
         <f>Users!C16</f>
@@ -1857,16 +1855,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G11" t="str">
         <f>Users!C33</f>
@@ -1878,16 +1876,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G12" t="str">
         <f>Users!C14</f>
@@ -1899,16 +1897,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G13" t="str">
         <f>Users!C32</f>
@@ -1920,16 +1918,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G14" t="str">
         <f>Users!C5</f>
@@ -1941,16 +1939,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G15" t="str">
         <f>Users!C12</f>
@@ -1962,16 +1960,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G16" t="str">
         <f>Users!C27</f>
@@ -1983,19 +1981,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,16 +2001,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G18" t="str">
         <f>Users!C8</f>
@@ -2028,16 +2026,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G19" t="str">
         <f>Users!C10</f>
@@ -2049,16 +2047,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G21" t="str">
         <f>Users!C4</f>
@@ -2070,16 +2068,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2087,16 +2085,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2104,16 +2102,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2121,16 +2119,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2138,16 +2136,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G26" t="str">
         <f>Users!C18</f>
@@ -2159,16 +2157,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2176,16 +2174,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G28" t="str">
         <f>Users!C9</f>
@@ -2197,16 +2195,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2214,16 +2212,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G30" t="str">
         <f>Users!C25</f>
@@ -2235,16 +2233,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,16 +2250,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G32" t="str">
         <f>Users!C23</f>
@@ -2273,16 +2271,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,16 +2288,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2307,16 +2305,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2324,16 +2322,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,16 +2339,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2358,16 +2356,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,16 +2373,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G39" t="str">
         <f>Users!C24</f>
@@ -2396,16 +2394,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G40" t="str">
         <f>Users!C21</f>
@@ -2417,16 +2415,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,16 +2432,16 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
         <v>148</v>
       </c>
-      <c r="D43" t="s">
-        <v>152</v>
-      </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2451,16 +2449,16 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" t="s">
         <v>148</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>152</v>
-      </c>
-      <c r="E44" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,16 +2466,16 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>148</v>
       </c>
-      <c r="D45" t="s">
-        <v>152</v>
-      </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,16 +2483,16 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
         <v>148</v>
       </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2502,16 +2500,16 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
         <v>148</v>
       </c>
-      <c r="D47" t="s">
-        <v>152</v>
-      </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,16 +2517,16 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,16 +2534,16 @@
         <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G50" t="str">
         <f>Users!C28</f>
@@ -2592,13 +2590,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2615,10 +2613,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F45" si="0">CONCATENATE(" ('",E3,"','",B3,"'),")</f>
@@ -2630,10 +2628,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2645,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2660,10 +2658,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -2675,10 +2673,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2690,10 +2688,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2705,10 +2703,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -2720,10 +2718,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -2735,10 +2733,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -2750,10 +2748,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -2765,10 +2763,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2780,10 +2778,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2795,10 +2793,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2810,10 +2808,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2825,10 +2823,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -2840,10 +2838,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2855,10 +2853,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2870,10 +2868,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -2885,10 +2883,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -2900,10 +2898,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2915,10 +2913,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -2930,10 +2928,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -2945,10 +2943,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -2960,10 +2958,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -2975,10 +2973,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -2990,10 +2988,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -3005,10 +3003,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -3020,10 +3018,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -3035,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -3050,10 +3048,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -3065,10 +3063,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -3080,10 +3078,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -3095,10 +3093,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -3110,10 +3108,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -3125,10 +3123,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -3140,10 +3138,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -3155,10 +3153,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -3170,10 +3168,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -3185,10 +3183,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -3200,10 +3198,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -3215,10 +3213,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -3230,10 +3228,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F46" t="str">
         <f>CONCATENATE(" ('",E46,"','",B46,"'),")</f>
@@ -3245,10 +3243,10 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,6 +1760,9 @@
       <c r="G6" t="str">
         <f>Users!C6</f>
         <v>cendara@uce.edu.ec</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public_html/docs/users.xlsx
+++ b/public_html/docs/users.xlsx
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
